--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem5/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem5/99/correct_predictions_99.xlsx
@@ -1037,31 +1037,31 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1076,12 +1076,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1106,22 +1106,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1136,22 +1136,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem5/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem5/99/correct_predictions_99.xlsx
@@ -1037,31 +1037,31 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1076,12 +1076,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1106,22 +1106,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1136,22 +1136,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
